--- a/VariablesBDatos_V3.xlsx
+++ b/VariablesBDatos_V3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Andres\ANDES\2.5\ProblemSet2_Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/ea_garcia_uniandes_edu_co/Documents/MECA 2022_2023/BIGDATA/TALLERES/ProblemSet2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F33D58-C63A-4A11-8FF6-775808330A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{59F33D58-C63A-4A11-8FF6-775808330A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA85B116-7F7A-4BC3-A47A-EB48D0B9C3F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E906E044-D978-481C-9036-6120ADAEBE16}"/>
   </bookViews>
@@ -1159,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1245,6 +1245,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3811,7 +3812,7 @@
         <v>148</v>
       </c>
       <c r="J131" s="21">
-        <f t="shared" ref="J131:J162" si="5">+IF(H131=I131,1,0)</f>
+        <f t="shared" ref="J131:J137" si="5">+IF(H131=I131,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3893,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041C6553-3329-48FE-AD9E-62DC4FDA9683}">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3913,7 @@
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>240</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>id</v>
       </c>
       <c r="J3" t="str">
-        <f>+VLOOKUP(K3,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" ref="J3:J23" si="0">+VLOOKUP(K3,$L$3:$L$34,1,FALSE)</f>
         <v>Clase</v>
       </c>
       <c r="K3" t="s">
@@ -3967,23 +3968,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D18" si="0">+VLOOKUP(C4,$J$3:$J$27,1,FALSE)</f>
+        <f t="shared" ref="D4:D18" si="1">+VLOOKUP(C4,$J$3:$J$27,1,FALSE)</f>
         <v>Orden</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H18" si="1">+VLOOKUP(G4,$J$3:$J$27,1,FALSE)</f>
+        <f t="shared" ref="H4:H18" si="2">+VLOOKUP(G4,$J$3:$J$27,1,FALSE)</f>
         <v>Orden</v>
       </c>
       <c r="J4" t="str">
-        <f>+VLOOKUP(K4,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Des</v>
       </c>
       <c r="K4" t="s">
@@ -3993,7 +3994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -4001,21 +4002,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>Clase</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>Clase</v>
       </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>Clase</v>
+      </c>
       <c r="J5" t="str">
-        <f>+VLOOKUP(K5,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Dominio</v>
       </c>
       <c r="K5" t="s">
@@ -4025,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dominio</v>
       </c>
       <c r="F6" t="s">
@@ -4043,11 +4044,11 @@
         <v>2</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dominio</v>
       </c>
       <c r="J6" t="str">
-        <f>+VLOOKUP(K6,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Fex_c</v>
       </c>
       <c r="K6" t="s">
@@ -4056,8 +4057,9 @@
       <c r="L6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P6020</v>
       </c>
       <c r="F7" t="s">
@@ -4075,11 +4077,11 @@
         <v>26</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P6020</v>
       </c>
       <c r="J7" t="str">
-        <f>+VLOOKUP(K7,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Fex_dpto</v>
       </c>
       <c r="K7" t="s">
@@ -4089,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P6040</v>
       </c>
       <c r="F8" t="s">
@@ -4107,11 +4109,11 @@
         <v>27</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P6040</v>
       </c>
       <c r="J8" t="str">
-        <f>+VLOOKUP(K8,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>id</v>
       </c>
       <c r="K8" t="s">
@@ -4121,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P6050</v>
       </c>
       <c r="F9" t="s">
@@ -4139,11 +4141,11 @@
         <v>28</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P6050</v>
       </c>
       <c r="J9" t="str">
-        <f>+VLOOKUP(K9,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Ina</v>
       </c>
       <c r="K9" t="s">
@@ -4153,7 +4155,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P6090</v>
       </c>
       <c r="F10" t="s">
@@ -4171,11 +4173,11 @@
         <v>29</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P6090</v>
       </c>
       <c r="J10" t="str">
-        <f>+VLOOKUP(K10,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Li</v>
       </c>
       <c r="K10" t="s">
@@ -4185,7 +4187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="F11" t="s">
@@ -4203,11 +4205,11 @@
         <v>30</v>
       </c>
       <c r="H11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="J11" t="str">
-        <f>+VLOOKUP(K11,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Lp</v>
       </c>
       <c r="K11" t="s">
@@ -4217,7 +4219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P6210</v>
       </c>
       <c r="F12" t="s">
@@ -4235,11 +4237,11 @@
         <v>31</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P6210</v>
       </c>
       <c r="J12" t="str">
-        <f>+VLOOKUP(K12,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Nper</v>
       </c>
       <c r="K12" t="s">
@@ -4249,7 +4251,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -4257,7 +4259,7 @@
         <v>68</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P7495</v>
       </c>
       <c r="F13" t="s">
@@ -4267,11 +4269,11 @@
         <v>68</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P7495</v>
       </c>
       <c r="J13" t="str">
-        <f>+VLOOKUP(K13,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Npersug</v>
       </c>
       <c r="K13" t="s">
@@ -4281,7 +4283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>71</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>P7505</v>
       </c>
       <c r="F14" t="s">
@@ -4299,11 +4301,11 @@
         <v>71</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>P7505</v>
       </c>
       <c r="J14" t="str">
-        <f>+VLOOKUP(K14,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Oc</v>
       </c>
       <c r="K14" t="s">
@@ -4313,7 +4315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>78</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pet</v>
       </c>
       <c r="F15" t="s">
@@ -4331,11 +4333,11 @@
         <v>78</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Pet</v>
       </c>
       <c r="J15" t="str">
-        <f>+VLOOKUP(K15,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Orden</v>
       </c>
       <c r="K15" t="s">
@@ -4345,12 +4347,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>79</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Oc</v>
       </c>
       <c r="F16" t="s">
@@ -4360,11 +4362,11 @@
         <v>79</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Oc</v>
       </c>
       <c r="J16" t="str">
-        <f>+VLOOKUP(K16,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P5000</v>
       </c>
       <c r="K16" t="s">
@@ -4379,7 +4381,7 @@
         <v>80</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Des</v>
       </c>
       <c r="F17" t="s">
@@ -4389,11 +4391,11 @@
         <v>80</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Des</v>
       </c>
       <c r="J17" t="str">
-        <f>+VLOOKUP(K17,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P5010</v>
       </c>
       <c r="K17" t="s">
@@ -4408,7 +4410,7 @@
         <v>81</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ina</v>
       </c>
       <c r="F18" t="s">
@@ -4418,11 +4420,11 @@
         <v>81</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ina</v>
       </c>
       <c r="J18" t="str">
-        <f>+VLOOKUP(K18,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P5090</v>
       </c>
       <c r="K18" t="s">
@@ -4440,7 +4442,7 @@
         <v>154</v>
       </c>
       <c r="J19" t="str">
-        <f>+VLOOKUP(K19,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P6020</v>
       </c>
       <c r="K19" t="s">
@@ -4455,7 +4457,7 @@
         <v>22</v>
       </c>
       <c r="J20" t="str">
-        <f>+VLOOKUP(K20,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P6040</v>
       </c>
       <c r="K20" t="s">
@@ -4470,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="J21" t="str">
-        <f>+VLOOKUP(K21,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P6050</v>
       </c>
       <c r="K21" t="s">
@@ -4485,7 +4487,7 @@
         <v>15</v>
       </c>
       <c r="J22" t="str">
-        <f>+VLOOKUP(K22,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P6090</v>
       </c>
       <c r="K22" t="s">
@@ -4497,7 +4499,7 @@
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J23" t="str">
-        <f>+VLOOKUP(K23,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>P6210</v>
       </c>
       <c r="K23" t="s">
@@ -4509,7 +4511,7 @@
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J24" t="str">
-        <f t="shared" ref="J24:J27" si="2">+VLOOKUP(K24,$L$3:$L$34,1,FALSE)</f>
+        <f t="shared" ref="J24:J26" si="3">+VLOOKUP(K24,$L$3:$L$34,1,FALSE)</f>
         <v>P7495</v>
       </c>
       <c r="K24" t="s">
@@ -4521,7 +4523,7 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>P7505</v>
       </c>
       <c r="K25" t="s">
@@ -4533,7 +4535,7 @@
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Pet</v>
       </c>
       <c r="K26" t="s">
